--- a/biology/Zoologie/Collier-de-corail_des_Canaries/Collier-de-corail_des_Canaries.xlsx
+++ b/biology/Zoologie/Collier-de-corail_des_Canaries/Collier-de-corail_des_Canaries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aricia  cramera
 Le Collier-de-corail des Canaries (Aricia  cramera) est un lépidoptère (papillon) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
@@ -512,14 +524,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aricia  cramera a été nommé par Eschscholtz en 1821.
-Synonymes: Plebejus cramera (Eschscholtz, 1821), Lycaena cramera Eschscholtz, 1821, Aricia cramera pallidecanariensis Verity, 1928[1].
-Noms vernaculaires
-Le Collier-de-corail des Canaries se nomme en anglais Southern Brown Argus, en espagnol Morena, en néerlandais Moors bruin blauwtje.
-Sous-espèce
-Aricia cremera a pu être considéré comme Aricia agestis cremera, une sous-espèce de Aricia agestis (le Collier-de-corail).
+Synonymes: Plebejus cramera (Eschscholtz, 1821), Lycaena cramera Eschscholtz, 1821, Aricia cramera pallidecanariensis Verity, 1928.
 </t>
         </is>
       </c>
@@ -545,15 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un petit papillon au dessus marron orné d'une ligne sub-marginale de taches orangées et frange blanche.
-Le revers est beige, les ailes sont ornées d'une ligne de points blancs centrés de noir et d'une ligne submarginale de taches orange.
-Espèce proche
-Il est semblable à l’Argus brun (ou Collier-de-corail), seuls les genitalia montrent que ce sont des espèces distinctes.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Collier-de-corail des Canaries se nomme en anglais Southern Brown Argus, en espagnol Morena, en néerlandais Moors bruin blauwtje.
 </t>
         </is>
       </c>
@@ -579,16 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hibernation
-Il vole toute l'année dans les Canaries, en deux à trois générations en Afrique du Nord et en Espagne en fonction de la latitude.
-Il hiverne à l'état de chenille. Les chenilles sont soignées par des fourmis des genres Lasius et Myrmica[2].
-Plantes hôtes
-Ses plantes hôtes sont diverses Geraniaceae, Erodium, Helianthemum nummularium et Tuberaria guttata à Ténérife[2].
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aricia cremera a pu être considéré comme Aricia agestis cremera, une sous-espèce de Aricia agestis (le Collier-de-corail).
 </t>
         </is>
       </c>
@@ -614,16 +629,234 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon au dessus marron orné d'une ligne sub-marginale de taches orangées et frange blanche.
+Le revers est beige, les ailes sont ornées d'une ligne de points blancs centrés de noir et d'une ligne submarginale de taches orange.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Collier-de-corail_des_Canaries</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collier-de-corail_des_Canaries</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèce proche</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est semblable à l’Argus brun (ou Collier-de-corail), seuls les genitalia montrent que ce sont des espèces distinctes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Collier-de-corail_des_Canaries</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collier-de-corail_des_Canaries</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hibernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année dans les Canaries, en deux à trois générations en Afrique du Nord et en Espagne en fonction de la latitude.
+Il hiverne à l'état de chenille. Les chenilles sont soignées par des fourmis des genres Lasius et Myrmica.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Collier-de-corail_des_Canaries</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collier-de-corail_des_Canaries</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses Geraniaceae, Erodium, Helianthemum nummularium et Tuberaria guttata à Ténérife.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Collier-de-corail_des_Canaries</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collier-de-corail_des_Canaries</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est présent en Afrique du Nord, dans les Canaries, les Baléares, en Espagne dans les monts Cantabriques et dans les Pyrénées.
-Biotope
-Il habite les lieux secs fleuris.
-Protection
-Le Collier-de-corail des Canaries est inscrit sur la liste rouge des insectes protégés[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Collier-de-corail_des_Canaries</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collier-de-corail_des_Canaries</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il habite les lieux secs fleuris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Collier-de-corail_des_Canaries</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collier-de-corail_des_Canaries</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Collier-de-corail des Canaries est inscrit sur la liste rouge des insectes protégés.
 </t>
         </is>
       </c>
